--- a/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
+++ b/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
@@ -873,7 +873,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="W5" t="n">
-        <v>28324000</v>
+        <v>30374000</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="AA5" t="n">
-        <v>17626000</v>
+        <v>15576000</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>

--- a/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
+++ b/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
@@ -873,7 +873,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>

--- a/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
+++ b/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-07-28T16:31:00.000Z</t>
+    <t>2024-07-31T18:24:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-392831dfce684f0886b7e0fd941ca4ea</t>
@@ -1270,7 +1270,7 @@
         <v>80</v>
       </c>
       <c r="W5">
-        <v>30608000</v>
+        <v>43384000</v>
       </c>
       <c r="X5" t="s">
         <v>82</v>
@@ -1282,7 +1282,7 @@
         <v>80</v>
       </c>
       <c r="AA5">
-        <v>15342000</v>
+        <v>12566000</v>
       </c>
       <c r="AB5" t="s">
         <v>83</v>
@@ -1294,7 +1294,7 @@
         <v>80</v>
       </c>
       <c r="AE5">
-        <v>45950000</v>
+        <v>55950000</v>
       </c>
       <c r="AF5" t="s">
         <v>84</v>
@@ -1303,7 +1303,7 @@
         <v>80</v>
       </c>
       <c r="AH5">
-        <v>42650000</v>
+        <v>52650000</v>
       </c>
       <c r="AI5" t="s">
         <v>85</v>
@@ -1312,7 +1312,7 @@
         <v>80</v>
       </c>
       <c r="AK5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="s">
         <v>86</v>
@@ -1330,7 +1330,7 @@
         <v>80</v>
       </c>
       <c r="AQ5">
-        <v>48150000</v>
+        <v>58150000</v>
       </c>
       <c r="AR5" t="s">
         <v>88</v>

--- a/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
+++ b/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-07-31T18:24:00.000Z</t>
+    <t>2024-08-03T03:17:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-392831dfce684f0886b7e0fd941ca4ea</t>
@@ -1832,7 +1832,7 @@
         <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>73</v>
       </c>
       <c r="N10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O10" t="s">
         <v>76</v>
@@ -1871,7 +1871,7 @@
         <v>80</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="U10" t="s">
         <v>81</v>
@@ -1879,6 +1879,9 @@
       <c r="V10" t="s">
         <v>80</v>
       </c>
+      <c r="W10">
+        <v>1857000</v>
+      </c>
       <c r="X10" t="s">
         <v>82</v>
       </c>
@@ -1889,7 +1892,7 @@
         <v>80</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>9143000</v>
       </c>
       <c r="AB10" t="s">
         <v>83</v>
@@ -1901,7 +1904,7 @@
         <v>80</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="AF10" t="s">
         <v>84</v>
@@ -1909,23 +1912,35 @@
       <c r="AG10" t="s">
         <v>80</v>
       </c>
+      <c r="AH10">
+        <v>11000000</v>
+      </c>
       <c r="AI10" t="s">
         <v>85</v>
       </c>
       <c r="AJ10" t="s">
         <v>80</v>
       </c>
+      <c r="AK10">
+        <v>2</v>
+      </c>
       <c r="AL10" t="s">
         <v>86</v>
       </c>
       <c r="AM10" t="s">
         <v>80</v>
       </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
       <c r="AO10" t="s">
         <v>87</v>
       </c>
       <c r="AP10" t="s">
         <v>80</v>
+      </c>
+      <c r="AQ10">
+        <v>12000000</v>
       </c>
       <c r="AR10" t="s">
         <v>88</v>

--- a/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
+++ b/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T03:17:00.000Z</t>
+    <t>2024-08-03T03:28:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-392831dfce684f0886b7e0fd941ca4ea</t>

--- a/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
+++ b/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T03:28:00.000Z</t>
+    <t>2024-08-03T03:54:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-392831dfce684f0886b7e0fd941ca4ea</t>

--- a/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
+++ b/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T03:54:00.000Z</t>
+    <t>2024-08-03T20:14:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-392831dfce684f0886b7e0fd941ca4ea</t>

--- a/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
+++ b/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="102">
   <si>
     <t>object</t>
   </si>
@@ -196,7 +196,10 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T20:14:00.000Z</t>
+    <t>2024-08-03T21:27:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-03T21:28:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-392831dfce684f0886b7e0fd941ca4ea</t>
@@ -853,100 +856,100 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" t="s">
         <v>74</v>
       </c>
-      <c r="M2" t="s">
-        <v>73</v>
-      </c>
       <c r="N2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AO2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AR2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -969,115 +972,115 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" t="s">
         <v>74</v>
       </c>
-      <c r="M3" t="s">
-        <v>73</v>
-      </c>
       <c r="N3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T3">
         <v>23500000</v>
       </c>
       <c r="U3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W3">
         <v>60558000</v>
       </c>
       <c r="X3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA3">
         <v>61142000</v>
       </c>
       <c r="AB3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE3">
         <v>121700000</v>
       </c>
       <c r="AF3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH3">
         <v>104000000</v>
       </c>
       <c r="AI3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK3">
         <v>21</v>
       </c>
       <c r="AL3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN3">
         <v>17700000</v>
       </c>
       <c r="AO3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AQ3">
         <v>127500000</v>
       </c>
       <c r="AR3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1100,115 +1103,115 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
         <v>74</v>
       </c>
-      <c r="M4" t="s">
-        <v>73</v>
-      </c>
       <c r="N4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T4">
         <v>27500000</v>
       </c>
       <c r="U4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W4">
         <v>80201000</v>
       </c>
       <c r="X4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA4">
         <v>55199000</v>
       </c>
       <c r="AB4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE4">
         <v>135400000</v>
       </c>
       <c r="AF4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH4">
         <v>118400000</v>
       </c>
       <c r="AI4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK4">
         <v>17</v>
       </c>
       <c r="AL4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN4">
         <v>17000000</v>
       </c>
       <c r="AO4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AQ4">
         <v>145900000</v>
       </c>
       <c r="AR4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1222,7 +1225,7 @@
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -1231,115 +1234,115 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="s">
         <v>74</v>
       </c>
-      <c r="M5" t="s">
-        <v>73</v>
-      </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T5">
         <v>5500000</v>
       </c>
       <c r="U5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W5">
         <v>43384000</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA5">
         <v>12566000</v>
       </c>
       <c r="AB5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE5">
         <v>55950000</v>
       </c>
       <c r="AF5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH5">
         <v>52650000</v>
       </c>
       <c r="AI5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK5">
         <v>15</v>
       </c>
       <c r="AL5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN5">
         <v>3300000</v>
       </c>
       <c r="AO5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AQ5">
         <v>58150000</v>
       </c>
       <c r="AR5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1362,100 +1365,100 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="s">
         <v>74</v>
       </c>
-      <c r="M6" t="s">
-        <v>73</v>
-      </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AO6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AR6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1478,115 +1481,115 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
         <v>74</v>
       </c>
-      <c r="M7" t="s">
-        <v>73</v>
-      </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T7">
         <v>54500000</v>
       </c>
       <c r="U7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W7">
         <v>61008000</v>
       </c>
       <c r="X7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA7">
         <v>29992000</v>
       </c>
       <c r="AB7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE7">
         <v>91000000</v>
       </c>
       <c r="AF7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH7">
         <v>91000000</v>
       </c>
       <c r="AI7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK7">
         <v>18</v>
       </c>
       <c r="AL7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN7">
         <v>0</v>
       </c>
       <c r="AO7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AQ7">
         <v>145500000</v>
       </c>
       <c r="AR7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1609,100 +1612,100 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" t="s">
         <v>74</v>
       </c>
-      <c r="M8" t="s">
-        <v>73</v>
-      </c>
       <c r="N8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AO8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AR8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1725,100 +1728,100 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" t="s">
         <v>74</v>
       </c>
-      <c r="M9" t="s">
-        <v>73</v>
-      </c>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AO9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AR9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1832,7 +1835,7 @@
         <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -1841,115 +1844,115 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" t="s">
         <v>74</v>
       </c>
-      <c r="M10" t="s">
-        <v>73</v>
-      </c>
       <c r="N10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T10">
         <v>1000000</v>
       </c>
       <c r="U10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W10">
         <v>1857000</v>
       </c>
       <c r="X10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA10">
         <v>9143000</v>
       </c>
       <c r="AB10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE10">
         <v>11000000</v>
       </c>
       <c r="AF10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH10">
         <v>11000000</v>
       </c>
       <c r="AI10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK10">
         <v>2</v>
       </c>
       <c r="AL10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN10">
         <v>0</v>
       </c>
       <c r="AO10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AQ10">
         <v>12000000</v>
       </c>
       <c r="AR10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -1972,100 +1975,100 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" t="s">
         <v>74</v>
       </c>
-      <c r="M11" t="s">
-        <v>73</v>
-      </c>
       <c r="N11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AO11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AR11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2088,115 +2091,115 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" t="s">
         <v>74</v>
       </c>
-      <c r="M12" t="s">
-        <v>73</v>
-      </c>
       <c r="N12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T12">
         <v>15498000</v>
       </c>
       <c r="U12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W12">
         <v>115802000</v>
       </c>
       <c r="X12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA12">
         <v>295993000</v>
       </c>
       <c r="AB12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE12">
         <v>411795000</v>
       </c>
       <c r="AF12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH12">
         <v>383795000</v>
       </c>
       <c r="AI12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK12">
         <v>42</v>
       </c>
       <c r="AL12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN12">
         <v>28000000</v>
       </c>
       <c r="AO12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AQ12">
         <v>399293000</v>
       </c>
       <c r="AR12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2219,115 +2222,115 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" t="s">
         <v>74</v>
       </c>
-      <c r="M13" t="s">
-        <v>73</v>
-      </c>
       <c r="N13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T13">
         <v>24000000</v>
       </c>
       <c r="U13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W13">
         <v>2500000</v>
       </c>
       <c r="X13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA13">
         <v>71500000</v>
       </c>
       <c r="AB13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE13">
         <v>74000000</v>
       </c>
       <c r="AF13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH13">
         <v>67000000</v>
       </c>
       <c r="AI13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK13">
         <v>3</v>
       </c>
       <c r="AL13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN13">
         <v>7000000</v>
       </c>
       <c r="AO13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AQ13">
         <v>91000000</v>
       </c>
       <c r="AR13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
+++ b/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="101">
   <si>
     <t>object</t>
   </si>
@@ -196,10 +196,7 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T21:27:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-03T21:28:00.000Z</t>
+    <t>2024-08-09T19:28:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-392831dfce684f0886b7e0fd941ca4ea</t>
@@ -856,100 +853,100 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" t="s">
         <v>74</v>
       </c>
-      <c r="L2" t="s">
-        <v>75</v>
-      </c>
       <c r="M2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" t="s">
         <v>74</v>
       </c>
-      <c r="N2" t="s">
-        <v>75</v>
-      </c>
       <c r="O2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" t="s">
         <v>77</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>78</v>
       </c>
-      <c r="Q2" t="s">
-        <v>79</v>
-      </c>
       <c r="R2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
         <v>81</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>80</v>
+      </c>
+      <c r="X2" t="s">
         <v>82</v>
       </c>
-      <c r="V2" t="s">
-        <v>81</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="s">
         <v>83</v>
       </c>
-      <c r="Y2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="s">
         <v>84</v>
       </c>
-      <c r="AC2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI2" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL2" t="s">
         <v>86</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO2" t="s">
         <v>87</v>
       </c>
-      <c r="AM2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR2" t="s">
         <v>88</v>
       </c>
-      <c r="AP2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT2" t="s">
         <v>89</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -972,115 +969,115 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" t="s">
         <v>74</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" t="s">
         <v>75</v>
       </c>
-      <c r="M3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>76</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>77</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" t="s">
-        <v>79</v>
-      </c>
       <c r="R3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T3">
         <v>23500000</v>
       </c>
       <c r="U3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W3">
         <v>60558000</v>
       </c>
       <c r="X3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA3">
         <v>61142000</v>
       </c>
       <c r="AB3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE3">
         <v>121700000</v>
       </c>
       <c r="AF3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH3">
         <v>104000000</v>
       </c>
       <c r="AI3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK3">
         <v>21</v>
       </c>
       <c r="AL3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AN3">
         <v>17700000</v>
       </c>
       <c r="AO3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AQ3">
         <v>127500000</v>
       </c>
       <c r="AR3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1103,115 +1100,115 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" t="s">
         <v>74</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" t="s">
         <v>75</v>
       </c>
-      <c r="M4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>76</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>77</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>78</v>
       </c>
-      <c r="Q4" t="s">
-        <v>79</v>
-      </c>
       <c r="R4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T4">
         <v>27500000</v>
       </c>
       <c r="U4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W4">
         <v>80201000</v>
       </c>
       <c r="X4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA4">
         <v>55199000</v>
       </c>
       <c r="AB4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE4">
         <v>135400000</v>
       </c>
       <c r="AF4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH4">
         <v>118400000</v>
       </c>
       <c r="AI4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK4">
         <v>17</v>
       </c>
       <c r="AL4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AN4">
         <v>17000000</v>
       </c>
       <c r="AO4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AQ4">
         <v>145900000</v>
       </c>
       <c r="AR4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1225,7 +1222,7 @@
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -1234,115 +1231,115 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" t="s">
         <v>75</v>
       </c>
-      <c r="M5" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>76</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>77</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>78</v>
       </c>
-      <c r="Q5" t="s">
-        <v>79</v>
-      </c>
       <c r="R5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T5">
         <v>5500000</v>
       </c>
       <c r="U5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W5">
         <v>43384000</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA5">
         <v>12566000</v>
       </c>
       <c r="AB5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE5">
         <v>55950000</v>
       </c>
       <c r="AF5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH5">
         <v>52650000</v>
       </c>
       <c r="AI5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK5">
         <v>15</v>
       </c>
       <c r="AL5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AN5">
         <v>3300000</v>
       </c>
       <c r="AO5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AQ5">
         <v>58150000</v>
       </c>
       <c r="AR5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1365,100 +1362,100 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
         <v>74</v>
       </c>
-      <c r="L6" t="s">
-        <v>75</v>
-      </c>
       <c r="M6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" t="s">
         <v>74</v>
       </c>
-      <c r="N6" t="s">
-        <v>75</v>
-      </c>
       <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="s">
         <v>77</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>78</v>
       </c>
-      <c r="Q6" t="s">
-        <v>79</v>
-      </c>
       <c r="R6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s">
+        <v>80</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
         <v>81</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
         <v>82</v>
       </c>
-      <c r="V6" t="s">
-        <v>81</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="s">
         <v>83</v>
       </c>
-      <c r="Y6" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="s">
         <v>84</v>
       </c>
-      <c r="AC6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI6" t="s">
         <v>85</v>
       </c>
-      <c r="AG6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL6" t="s">
         <v>86</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO6" t="s">
         <v>87</v>
       </c>
-      <c r="AM6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO6" t="s">
+      <c r="AP6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR6" t="s">
         <v>88</v>
       </c>
-      <c r="AP6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>89</v>
-      </c>
       <c r="AS6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1481,115 +1478,115 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" t="s">
         <v>74</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" t="s">
         <v>75</v>
       </c>
-      <c r="M7" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>76</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>77</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" t="s">
-        <v>79</v>
-      </c>
       <c r="R7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T7">
         <v>54500000</v>
       </c>
       <c r="U7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W7">
         <v>61008000</v>
       </c>
       <c r="X7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA7">
         <v>29992000</v>
       </c>
       <c r="AB7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE7">
         <v>91000000</v>
       </c>
       <c r="AF7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH7">
         <v>91000000</v>
       </c>
       <c r="AI7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK7">
         <v>18</v>
       </c>
       <c r="AL7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="s">
         <v>87</v>
       </c>
-      <c r="AM7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>88</v>
-      </c>
       <c r="AP7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AQ7">
         <v>145500000</v>
       </c>
       <c r="AR7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1612,100 +1609,100 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" t="s">
         <v>74</v>
       </c>
-      <c r="L8" t="s">
-        <v>75</v>
-      </c>
       <c r="M8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" t="s">
         <v>74</v>
       </c>
-      <c r="N8" t="s">
-        <v>75</v>
-      </c>
       <c r="O8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" t="s">
         <v>77</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>78</v>
       </c>
-      <c r="Q8" t="s">
-        <v>79</v>
-      </c>
       <c r="R8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s">
+        <v>80</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
         <v>81</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
+        <v>80</v>
+      </c>
+      <c r="X8" t="s">
         <v>82</v>
       </c>
-      <c r="V8" t="s">
-        <v>81</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="s">
         <v>83</v>
       </c>
-      <c r="Y8" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="s">
         <v>84</v>
       </c>
-      <c r="AC8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI8" t="s">
         <v>85</v>
       </c>
-      <c r="AG8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL8" t="s">
         <v>86</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO8" t="s">
         <v>87</v>
       </c>
-      <c r="AM8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO8" t="s">
+      <c r="AP8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR8" t="s">
         <v>88</v>
       </c>
-      <c r="AP8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>89</v>
-      </c>
       <c r="AS8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1728,100 +1725,100 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" t="s">
         <v>74</v>
       </c>
-      <c r="L9" t="s">
-        <v>75</v>
-      </c>
       <c r="M9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" t="s">
         <v>74</v>
       </c>
-      <c r="N9" t="s">
-        <v>75</v>
-      </c>
       <c r="O9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" t="s">
         <v>77</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>78</v>
       </c>
-      <c r="Q9" t="s">
-        <v>79</v>
-      </c>
       <c r="R9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s">
+        <v>80</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
         <v>81</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
+        <v>80</v>
+      </c>
+      <c r="X9" t="s">
         <v>82</v>
       </c>
-      <c r="V9" t="s">
-        <v>81</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="s">
         <v>83</v>
       </c>
-      <c r="Y9" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="s">
         <v>84</v>
       </c>
-      <c r="AC9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI9" t="s">
         <v>85</v>
       </c>
-      <c r="AG9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL9" t="s">
         <v>86</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO9" t="s">
         <v>87</v>
       </c>
-      <c r="AM9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO9" t="s">
+      <c r="AP9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR9" t="s">
         <v>88</v>
       </c>
-      <c r="AP9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>89</v>
-      </c>
       <c r="AS9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1835,7 +1832,7 @@
         <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -1844,115 +1841,115 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" t="s">
         <v>74</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" t="s">
         <v>75</v>
       </c>
-      <c r="M10" t="s">
-        <v>74</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>76</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>77</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>78</v>
       </c>
-      <c r="Q10" t="s">
-        <v>79</v>
-      </c>
       <c r="R10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T10">
         <v>1000000</v>
       </c>
       <c r="U10" t="s">
+        <v>81</v>
+      </c>
+      <c r="V10" t="s">
+        <v>80</v>
+      </c>
+      <c r="W10">
+        <v>9967000</v>
+      </c>
+      <c r="X10" t="s">
         <v>82</v>
       </c>
-      <c r="V10" t="s">
-        <v>81</v>
-      </c>
-      <c r="W10">
-        <v>1857000</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA10">
+        <v>3033000</v>
+      </c>
+      <c r="AB10" t="s">
         <v>83</v>
       </c>
-      <c r="Y10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA10">
-        <v>9143000</v>
-      </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE10">
+        <v>13000000</v>
+      </c>
+      <c r="AF10" t="s">
         <v>84</v>
       </c>
-      <c r="AC10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE10">
-        <v>11000000</v>
-      </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH10">
+        <v>13000000</v>
+      </c>
+      <c r="AI10" t="s">
         <v>85</v>
       </c>
-      <c r="AG10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH10">
-        <v>11000000</v>
-      </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK10">
+        <v>4</v>
+      </c>
+      <c r="AL10" t="s">
         <v>86</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK10">
-        <v>2</v>
-      </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="s">
         <v>87</v>
       </c>
-      <c r="AM10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="s">
+      <c r="AP10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ10">
+        <v>14000000</v>
+      </c>
+      <c r="AR10" t="s">
         <v>88</v>
       </c>
-      <c r="AP10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ10">
-        <v>12000000</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>89</v>
-      </c>
       <c r="AS10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -1975,100 +1972,100 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" t="s">
         <v>74</v>
       </c>
-      <c r="L11" t="s">
-        <v>75</v>
-      </c>
       <c r="M11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" t="s">
         <v>74</v>
       </c>
-      <c r="N11" t="s">
-        <v>75</v>
-      </c>
       <c r="O11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" t="s">
         <v>77</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>78</v>
       </c>
-      <c r="Q11" t="s">
-        <v>79</v>
-      </c>
       <c r="R11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s">
+        <v>80</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
         <v>81</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
+        <v>80</v>
+      </c>
+      <c r="X11" t="s">
         <v>82</v>
       </c>
-      <c r="V11" t="s">
-        <v>81</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="s">
         <v>83</v>
       </c>
-      <c r="Y11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="s">
         <v>84</v>
       </c>
-      <c r="AC11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI11" t="s">
         <v>85</v>
       </c>
-      <c r="AG11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL11" t="s">
         <v>86</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO11" t="s">
         <v>87</v>
       </c>
-      <c r="AM11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO11" t="s">
+      <c r="AP11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR11" t="s">
         <v>88</v>
       </c>
-      <c r="AP11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>89</v>
-      </c>
       <c r="AS11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2091,115 +2088,115 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" t="s">
         <v>74</v>
       </c>
-      <c r="L12" t="s">
-        <v>75</v>
-      </c>
       <c r="M12" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" t="s">
         <v>74</v>
       </c>
-      <c r="N12" t="s">
-        <v>75</v>
-      </c>
       <c r="O12" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" t="s">
         <v>77</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>78</v>
       </c>
-      <c r="Q12" t="s">
-        <v>79</v>
-      </c>
       <c r="R12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T12">
         <v>15498000</v>
       </c>
       <c r="U12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W12">
         <v>115802000</v>
       </c>
       <c r="X12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA12">
         <v>295993000</v>
       </c>
       <c r="AB12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE12">
         <v>411795000</v>
       </c>
       <c r="AF12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH12">
         <v>383795000</v>
       </c>
       <c r="AI12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK12">
         <v>42</v>
       </c>
       <c r="AL12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AN12">
         <v>28000000</v>
       </c>
       <c r="AO12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AQ12">
         <v>399293000</v>
       </c>
       <c r="AR12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2222,115 +2219,115 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" t="s">
         <v>73</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>74</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13" t="s">
         <v>75</v>
       </c>
-      <c r="M13" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>76</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>77</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>78</v>
       </c>
-      <c r="Q13" t="s">
-        <v>79</v>
-      </c>
       <c r="R13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T13">
         <v>24000000</v>
       </c>
       <c r="U13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W13">
         <v>2500000</v>
       </c>
       <c r="X13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA13">
         <v>71500000</v>
       </c>
       <c r="AB13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE13">
         <v>74000000</v>
       </c>
       <c r="AF13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH13">
         <v>67000000</v>
       </c>
       <c r="AI13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK13">
         <v>3</v>
       </c>
       <c r="AL13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AN13">
         <v>7000000</v>
       </c>
       <c r="AO13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AQ13">
         <v>91000000</v>
       </c>
       <c r="AR13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
+++ b/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-09T19:28:00.000Z</t>
+    <t>2024-08-12T02:00:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-392831dfce684f0886b7e0fd941ca4ea</t>
@@ -1880,7 +1880,7 @@
         <v>80</v>
       </c>
       <c r="W10">
-        <v>9967000</v>
+        <v>11157000</v>
       </c>
       <c r="X10" t="s">
         <v>82</v>
@@ -1892,7 +1892,7 @@
         <v>80</v>
       </c>
       <c r="AA10">
-        <v>3033000</v>
+        <v>6843000</v>
       </c>
       <c r="AB10" t="s">
         <v>83</v>
@@ -1904,7 +1904,7 @@
         <v>80</v>
       </c>
       <c r="AE10">
-        <v>13000000</v>
+        <v>18000000</v>
       </c>
       <c r="AF10" t="s">
         <v>84</v>
@@ -1913,7 +1913,7 @@
         <v>80</v>
       </c>
       <c r="AH10">
-        <v>13000000</v>
+        <v>18000000</v>
       </c>
       <c r="AI10" t="s">
         <v>85</v>
@@ -1922,7 +1922,7 @@
         <v>80</v>
       </c>
       <c r="AK10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL10" t="s">
         <v>86</v>
@@ -1940,7 +1940,7 @@
         <v>80</v>
       </c>
       <c r="AQ10">
-        <v>14000000</v>
+        <v>19000000</v>
       </c>
       <c r="AR10" t="s">
         <v>88</v>

--- a/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
+++ b/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="113">
   <si>
     <t>object</t>
   </si>
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-12T02:00:00.000Z</t>
+    <t>2024-08-23T13:32:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-392831dfce684f0886b7e0fd941ca4ea</t>
@@ -233,6 +233,42 @@
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-5-cab5d5c64b9d49f29afd2949775c2a52</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-12-392831dfce684f0886b7e0fd941ca4ea</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-6-4284cf757e284301922ad5bf8ea128b6</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-4-8c66cf3c0b3d46a8aa9d93dbde3c21f7</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-7-9995b750eabc45b080096045312b02e8</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-10-affa900e3f7143b0a808f194d469463a</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-3-b5842dbda43040a09cbe43c7f159b476</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-1-be52cf86f6e943c1bf70a7dbda6f0ff1</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-11-e3a08c0a82e24e03b7b62cb53e825403</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-8-2cdbfe7a912a40949ca95ed9c357d1d5</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-9-3ac0c3fab6ea44f5a4db8e322db635e9</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-2-c38df41570fc4cba948e850dd92b3ec8</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-5-cab5d5c64b9d49f29afd2949775c2a52</t>
   </si>
   <si>
     <t>user</t>
@@ -855,98 +891,101 @@
       <c r="I2" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="O2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="X2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AD2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AI2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AL2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AO2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AR2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -971,113 +1010,116 @@
       <c r="I3" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="O3" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="T3">
         <v>23500000</v>
       </c>
       <c r="U3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="W3">
         <v>60558000</v>
       </c>
       <c r="X3" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AA3">
         <v>61142000</v>
       </c>
       <c r="AB3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AD3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AE3">
         <v>121700000</v>
       </c>
       <c r="AF3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH3">
         <v>104000000</v>
       </c>
       <c r="AI3" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AK3">
         <v>21</v>
       </c>
       <c r="AL3" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AN3">
         <v>17700000</v>
       </c>
       <c r="AO3" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AQ3">
         <v>127500000</v>
       </c>
       <c r="AR3" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS3" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT3" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1102,113 +1144,116 @@
       <c r="I4" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="J4" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="O4" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q4" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="T4">
         <v>27500000</v>
       </c>
       <c r="U4" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="W4">
         <v>80201000</v>
       </c>
       <c r="X4" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AA4">
         <v>55199000</v>
       </c>
       <c r="AB4" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AD4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AE4">
         <v>135400000</v>
       </c>
       <c r="AF4" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH4">
         <v>118400000</v>
       </c>
       <c r="AI4" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AK4">
         <v>17</v>
       </c>
       <c r="AL4" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AN4">
         <v>17000000</v>
       </c>
       <c r="AO4" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AQ4">
         <v>145900000</v>
       </c>
       <c r="AR4" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS4" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT4" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1233,113 +1278,116 @@
       <c r="I5" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="J5" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="T5">
         <v>5500000</v>
       </c>
       <c r="U5" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="W5">
         <v>43384000</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AA5">
         <v>12566000</v>
       </c>
       <c r="AB5" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AD5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AE5">
         <v>55950000</v>
       </c>
       <c r="AF5" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH5">
         <v>52650000</v>
       </c>
       <c r="AI5" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AK5">
         <v>15</v>
       </c>
       <c r="AL5" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AN5">
         <v>3300000</v>
       </c>
       <c r="AO5" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AQ5">
         <v>58150000</v>
       </c>
       <c r="AR5" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS5" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT5" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1364,98 +1412,101 @@
       <c r="I6" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="J6" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M6" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q6" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AD6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AI6" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AL6" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AO6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AR6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT6" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1480,113 +1531,116 @@
       <c r="I7" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="J7" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q7" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="T7">
         <v>54500000</v>
       </c>
       <c r="U7" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="W7">
         <v>61008000</v>
       </c>
       <c r="X7" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AA7">
         <v>29992000</v>
       </c>
       <c r="AB7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AD7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AE7">
         <v>91000000</v>
       </c>
       <c r="AF7" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH7">
         <v>91000000</v>
       </c>
       <c r="AI7" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AK7">
         <v>18</v>
       </c>
       <c r="AL7" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AN7">
         <v>0</v>
       </c>
       <c r="AO7" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AQ7">
         <v>145500000</v>
       </c>
       <c r="AR7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT7" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1611,98 +1665,101 @@
       <c r="I8" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="J8" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q8" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R8" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S8" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V8" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="X8" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y8" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z8" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC8" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AD8" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AI8" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ8" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AL8" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM8" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AO8" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP8" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AR8" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS8" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT8" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1727,98 +1784,101 @@
       <c r="I9" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="J9" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="K9" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L9" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M9" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="O9" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q9" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R9" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S9" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V9" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="X9" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y9" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z9" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC9" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AD9" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG9" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AI9" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ9" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AL9" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM9" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AO9" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP9" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AR9" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS9" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT9" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1843,113 +1903,116 @@
       <c r="I10" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="J10" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L10" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N10" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q10" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R10" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="T10">
-        <v>1000000</v>
+        <v>44500000</v>
       </c>
       <c r="U10" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="W10">
-        <v>11157000</v>
+        <v>24685000</v>
       </c>
       <c r="X10" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y10" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AA10">
-        <v>6843000</v>
+        <v>68315000</v>
       </c>
       <c r="AB10" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC10" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AD10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AE10">
-        <v>18000000</v>
+        <v>93000000</v>
       </c>
       <c r="AF10" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH10">
-        <v>18000000</v>
+        <v>91000000</v>
       </c>
       <c r="AI10" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AK10">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AL10" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="AO10" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AQ10">
-        <v>19000000</v>
+        <v>135500000</v>
       </c>
       <c r="AR10" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS10" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT10" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -1974,98 +2037,101 @@
       <c r="I11" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="J11" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N11" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q11" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R11" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S11" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V11" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="X11" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y11" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z11" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC11" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AD11" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG11" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AI11" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AL11" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM11" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AO11" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP11" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AR11" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS11" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT11" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2090,113 +2156,116 @@
       <c r="I12" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="J12" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="K12" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L12" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M12" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N12" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q12" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R12" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="T12">
         <v>15498000</v>
       </c>
       <c r="U12" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="W12">
         <v>115802000</v>
       </c>
       <c r="X12" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y12" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AA12">
         <v>295993000</v>
       </c>
       <c r="AB12" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC12" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AD12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AE12">
         <v>411795000</v>
       </c>
       <c r="AF12" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH12">
         <v>383795000</v>
       </c>
       <c r="AI12" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AK12">
         <v>42</v>
       </c>
       <c r="AL12" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AN12">
         <v>28000000</v>
       </c>
       <c r="AO12" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AQ12">
         <v>399293000</v>
       </c>
       <c r="AR12" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS12" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT12" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2221,129 +2290,144 @@
       <c r="I13" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="J13" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="K13" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L13" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M13" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N13" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q13" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R13" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="T13">
         <v>24000000</v>
       </c>
       <c r="U13" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="W13">
         <v>2500000</v>
       </c>
       <c r="X13" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y13" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AA13">
         <v>71500000</v>
       </c>
       <c r="AB13" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC13" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AD13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AE13">
         <v>74000000</v>
       </c>
       <c r="AF13" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH13">
         <v>67000000</v>
       </c>
       <c r="AI13" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AK13">
         <v>3</v>
       </c>
       <c r="AL13" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AN13">
         <v>7000000</v>
       </c>
       <c r="AO13" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AQ13">
         <v>91000000</v>
       </c>
       <c r="AR13" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS13" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT13" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="I6" r:id="rId5"/>
-    <hyperlink ref="I7" r:id="rId6"/>
-    <hyperlink ref="I8" r:id="rId7"/>
-    <hyperlink ref="I9" r:id="rId8"/>
-    <hyperlink ref="I10" r:id="rId9"/>
-    <hyperlink ref="I11" r:id="rId10"/>
-    <hyperlink ref="I12" r:id="rId11"/>
-    <hyperlink ref="I13" r:id="rId12"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="I4" r:id="rId5"/>
+    <hyperlink ref="J4" r:id="rId6"/>
+    <hyperlink ref="I5" r:id="rId7"/>
+    <hyperlink ref="J5" r:id="rId8"/>
+    <hyperlink ref="I6" r:id="rId9"/>
+    <hyperlink ref="J6" r:id="rId10"/>
+    <hyperlink ref="I7" r:id="rId11"/>
+    <hyperlink ref="J7" r:id="rId12"/>
+    <hyperlink ref="I8" r:id="rId13"/>
+    <hyperlink ref="J8" r:id="rId14"/>
+    <hyperlink ref="I9" r:id="rId15"/>
+    <hyperlink ref="J9" r:id="rId16"/>
+    <hyperlink ref="I10" r:id="rId17"/>
+    <hyperlink ref="J10" r:id="rId18"/>
+    <hyperlink ref="I11" r:id="rId19"/>
+    <hyperlink ref="J11" r:id="rId20"/>
+    <hyperlink ref="I12" r:id="rId21"/>
+    <hyperlink ref="J12" r:id="rId22"/>
+    <hyperlink ref="I13" r:id="rId23"/>
+    <hyperlink ref="J13" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
+++ b/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-23T13:32:00.000Z</t>
+    <t>2024-08-24T20:33:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-392831dfce684f0886b7e0fd941ca4ea</t>
@@ -1943,7 +1943,7 @@
         <v>92</v>
       </c>
       <c r="W10">
-        <v>24685000</v>
+        <v>24505000</v>
       </c>
       <c r="X10" t="s">
         <v>94</v>
@@ -1955,7 +1955,7 @@
         <v>92</v>
       </c>
       <c r="AA10">
-        <v>68315000</v>
+        <v>88495000</v>
       </c>
       <c r="AB10" t="s">
         <v>95</v>
@@ -1967,7 +1967,7 @@
         <v>92</v>
       </c>
       <c r="AE10">
-        <v>93000000</v>
+        <v>113000000</v>
       </c>
       <c r="AF10" t="s">
         <v>96</v>
@@ -1985,7 +1985,7 @@
         <v>92</v>
       </c>
       <c r="AK10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL10" t="s">
         <v>98</v>
@@ -1994,7 +1994,7 @@
         <v>92</v>
       </c>
       <c r="AN10">
-        <v>2000000</v>
+        <v>22000000</v>
       </c>
       <c r="AO10" t="s">
         <v>99</v>

--- a/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
+++ b/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-24T20:33:00.000Z</t>
+    <t>2024-08-26T17:26:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-392831dfce684f0886b7e0fd941ca4ea</t>
@@ -1934,7 +1934,7 @@
         <v>92</v>
       </c>
       <c r="T10">
-        <v>44500000</v>
+        <v>50500000</v>
       </c>
       <c r="U10" t="s">
         <v>93</v>
@@ -1943,7 +1943,7 @@
         <v>92</v>
       </c>
       <c r="W10">
-        <v>24505000</v>
+        <v>29618000</v>
       </c>
       <c r="X10" t="s">
         <v>94</v>
@@ -1955,7 +1955,7 @@
         <v>92</v>
       </c>
       <c r="AA10">
-        <v>88495000</v>
+        <v>83382000</v>
       </c>
       <c r="AB10" t="s">
         <v>95</v>
@@ -1985,7 +1985,7 @@
         <v>92</v>
       </c>
       <c r="AK10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL10" t="s">
         <v>98</v>
@@ -2003,7 +2003,7 @@
         <v>92</v>
       </c>
       <c r="AQ10">
-        <v>135500000</v>
+        <v>141500000</v>
       </c>
       <c r="AR10" t="s">
         <v>100</v>

--- a/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
+++ b/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-26T17:26:00.000Z</t>
+    <t>2024-08-27T12:18:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-392831dfce684f0886b7e0fd941ca4ea</t>
@@ -1934,7 +1934,7 @@
         <v>92</v>
       </c>
       <c r="T10">
-        <v>50500000</v>
+        <v>62500000</v>
       </c>
       <c r="U10" t="s">
         <v>93</v>
@@ -1943,7 +1943,7 @@
         <v>92</v>
       </c>
       <c r="W10">
-        <v>29618000</v>
+        <v>30575000</v>
       </c>
       <c r="X10" t="s">
         <v>94</v>
@@ -1955,7 +1955,7 @@
         <v>92</v>
       </c>
       <c r="AA10">
-        <v>83382000</v>
+        <v>89925000</v>
       </c>
       <c r="AB10" t="s">
         <v>95</v>
@@ -1967,7 +1967,7 @@
         <v>92</v>
       </c>
       <c r="AE10">
-        <v>113000000</v>
+        <v>120500000</v>
       </c>
       <c r="AF10" t="s">
         <v>96</v>
@@ -1976,7 +1976,7 @@
         <v>92</v>
       </c>
       <c r="AH10">
-        <v>91000000</v>
+        <v>98500000</v>
       </c>
       <c r="AI10" t="s">
         <v>97</v>
@@ -1985,7 +1985,7 @@
         <v>92</v>
       </c>
       <c r="AK10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="s">
         <v>98</v>
@@ -2003,7 +2003,7 @@
         <v>92</v>
       </c>
       <c r="AQ10">
-        <v>141500000</v>
+        <v>161000000</v>
       </c>
       <c r="AR10" t="s">
         <v>100</v>

--- a/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
+++ b/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-27T12:18:00.000Z</t>
+    <t>2024-08-28T15:04:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-392831dfce684f0886b7e0fd941ca4ea</t>
@@ -1943,7 +1943,7 @@
         <v>92</v>
       </c>
       <c r="W10">
-        <v>30575000</v>
+        <v>29575000</v>
       </c>
       <c r="X10" t="s">
         <v>94</v>
@@ -1955,7 +1955,7 @@
         <v>92</v>
       </c>
       <c r="AA10">
-        <v>89925000</v>
+        <v>90925000</v>
       </c>
       <c r="AB10" t="s">
         <v>95</v>

--- a/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
+++ b/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-28T15:04:00.000Z</t>
+    <t>2024-08-30T20:17:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-392831dfce684f0886b7e0fd941ca4ea</t>
@@ -1943,7 +1943,7 @@
         <v>92</v>
       </c>
       <c r="W10">
-        <v>29575000</v>
+        <v>56993000</v>
       </c>
       <c r="X10" t="s">
         <v>94</v>
@@ -1955,7 +1955,7 @@
         <v>92</v>
       </c>
       <c r="AA10">
-        <v>90925000</v>
+        <v>63507000</v>
       </c>
       <c r="AB10" t="s">
         <v>95</v>

--- a/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
+++ b/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="114">
   <si>
     <t>object</t>
   </si>
@@ -196,7 +196,10 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-30T20:17:00.000Z</t>
+    <t>2024-08-31T05:40:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-31T05:43:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-392831dfce684f0886b7e0fd941ca4ea</t>
@@ -889,103 +892,103 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" t="s">
         <v>86</v>
       </c>
-      <c r="M2" t="s">
-        <v>85</v>
-      </c>
       <c r="N2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AR2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -1008,118 +1011,118 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" t="s">
         <v>86</v>
       </c>
-      <c r="M3" t="s">
-        <v>85</v>
-      </c>
       <c r="N3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T3">
         <v>23500000</v>
       </c>
       <c r="U3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W3">
         <v>60558000</v>
       </c>
       <c r="X3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA3">
         <v>61142000</v>
       </c>
       <c r="AB3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE3">
         <v>121700000</v>
       </c>
       <c r="AF3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH3">
         <v>104000000</v>
       </c>
       <c r="AI3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK3">
         <v>21</v>
       </c>
       <c r="AL3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN3">
         <v>17700000</v>
       </c>
       <c r="AO3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AQ3">
         <v>127500000</v>
       </c>
       <c r="AR3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1133,7 +1136,7 @@
         <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -1142,118 +1145,118 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" t="s">
         <v>86</v>
       </c>
-      <c r="M4" t="s">
-        <v>85</v>
-      </c>
       <c r="N4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T4">
         <v>27500000</v>
       </c>
       <c r="U4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W4">
         <v>80201000</v>
       </c>
       <c r="X4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA4">
         <v>55199000</v>
       </c>
       <c r="AB4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE4">
         <v>135400000</v>
       </c>
       <c r="AF4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH4">
         <v>118400000</v>
       </c>
       <c r="AI4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK4">
         <v>17</v>
       </c>
       <c r="AL4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN4">
         <v>17000000</v>
       </c>
       <c r="AO4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AQ4">
         <v>145900000</v>
       </c>
       <c r="AR4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1276,118 +1279,118 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" t="s">
         <v>86</v>
       </c>
-      <c r="M5" t="s">
-        <v>85</v>
-      </c>
       <c r="N5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T5">
         <v>5500000</v>
       </c>
       <c r="U5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W5">
         <v>43384000</v>
       </c>
       <c r="X5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA5">
         <v>12566000</v>
       </c>
       <c r="AB5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE5">
         <v>55950000</v>
       </c>
       <c r="AF5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH5">
         <v>52650000</v>
       </c>
       <c r="AI5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK5">
         <v>15</v>
       </c>
       <c r="AL5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN5">
         <v>3300000</v>
       </c>
       <c r="AO5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AQ5">
         <v>58150000</v>
       </c>
       <c r="AR5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1410,103 +1413,103 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="s">
         <v>86</v>
       </c>
-      <c r="M6" t="s">
-        <v>85</v>
-      </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AR6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1520,7 +1523,7 @@
         <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -1529,118 +1532,118 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="s">
         <v>86</v>
       </c>
-      <c r="M7" t="s">
-        <v>85</v>
-      </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T7">
         <v>54500000</v>
       </c>
       <c r="U7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W7">
         <v>61008000</v>
       </c>
       <c r="X7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA7">
         <v>29992000</v>
       </c>
       <c r="AB7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE7">
         <v>91000000</v>
       </c>
       <c r="AF7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH7">
         <v>91000000</v>
       </c>
       <c r="AI7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK7">
         <v>18</v>
       </c>
       <c r="AL7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN7">
         <v>0</v>
       </c>
       <c r="AO7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AQ7">
         <v>145500000</v>
       </c>
       <c r="AR7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1663,103 +1666,103 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="s">
         <v>86</v>
       </c>
-      <c r="M8" t="s">
-        <v>85</v>
-      </c>
       <c r="N8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AR8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1782,103 +1785,103 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" t="s">
         <v>86</v>
       </c>
-      <c r="M9" t="s">
-        <v>85</v>
-      </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AR9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1901,118 +1904,118 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" t="s">
         <v>86</v>
       </c>
-      <c r="M10" t="s">
-        <v>85</v>
-      </c>
       <c r="N10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T10">
         <v>62500000</v>
       </c>
       <c r="U10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W10">
         <v>56993000</v>
       </c>
       <c r="X10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA10">
         <v>63507000</v>
       </c>
       <c r="AB10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE10">
         <v>120500000</v>
       </c>
       <c r="AF10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH10">
         <v>98500000</v>
       </c>
       <c r="AI10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK10">
         <v>15</v>
       </c>
       <c r="AL10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN10">
         <v>22000000</v>
       </c>
       <c r="AO10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AQ10">
         <v>161000000</v>
       </c>
       <c r="AR10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -2035,103 +2038,103 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" t="s">
         <v>86</v>
       </c>
-      <c r="M11" t="s">
-        <v>85</v>
-      </c>
       <c r="N11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AR11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2154,118 +2157,118 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" t="s">
         <v>86</v>
       </c>
-      <c r="M12" t="s">
-        <v>85</v>
-      </c>
       <c r="N12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T12">
         <v>15498000</v>
       </c>
       <c r="U12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W12">
         <v>115802000</v>
       </c>
       <c r="X12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA12">
         <v>295993000</v>
       </c>
       <c r="AB12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE12">
         <v>411795000</v>
       </c>
       <c r="AF12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH12">
         <v>383795000</v>
       </c>
       <c r="AI12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK12">
         <v>42</v>
       </c>
       <c r="AL12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN12">
         <v>28000000</v>
       </c>
       <c r="AO12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AQ12">
         <v>399293000</v>
       </c>
       <c r="AR12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2279,7 +2282,7 @@
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -2288,118 +2291,118 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" t="s">
         <v>86</v>
       </c>
-      <c r="M13" t="s">
-        <v>85</v>
-      </c>
       <c r="N13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T13">
         <v>24000000</v>
       </c>
       <c r="U13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W13">
         <v>2500000</v>
       </c>
       <c r="X13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA13">
         <v>71500000</v>
       </c>
       <c r="AB13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE13">
         <v>74000000</v>
       </c>
       <c r="AF13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH13">
         <v>67000000</v>
       </c>
       <c r="AI13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK13">
         <v>3</v>
       </c>
       <c r="AL13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN13">
         <v>7000000</v>
       </c>
       <c r="AO13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AQ13">
         <v>91000000</v>
       </c>
       <c r="AR13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
+++ b/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
@@ -196,10 +196,10 @@
     <t>2024-06-26T06:03:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-31T05:40:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-31T05:43:00.000Z</t>
+    <t>2024-08-31T15:46:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-31T15:45:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-392831dfce684f0886b7e0fd941ca4ea</t>
@@ -1136,7 +1136,7 @@
         <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>93</v>
       </c>
       <c r="W10">
-        <v>56993000</v>
+        <v>58993000</v>
       </c>
       <c r="X10" t="s">
         <v>95</v>
@@ -1958,7 +1958,7 @@
         <v>93</v>
       </c>
       <c r="AA10">
-        <v>63507000</v>
+        <v>61507000</v>
       </c>
       <c r="AB10" t="s">
         <v>96</v>
@@ -2282,7 +2282,7 @@
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
